--- a/Adult Income Decision Tree/Performance_metrics/model_perf_metrics_merged_only_with_cfs__6331_9495__1_2 .xlsx
+++ b/Adult Income Decision Tree/Performance_metrics/model_perf_metrics_merged_only_with_cfs__6331_9495__1_2 .xlsx
@@ -502,10 +502,10 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.671937984496124</v>
+        <v>0.6685254027261462</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7721219875088172</v>
+        <v>0.770081461131403</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>31655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6182710347813537</v>
+        <v>0.6258111031002161</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7435660699037887</v>
+        <v>0.7486932520768662</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>31655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.60901295384054</v>
+        <v>0.4711496746203905</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7236188018859573</v>
+        <v>0.6537977736337234</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>6331</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5160567587752054</v>
+        <v>0.4405737704918032</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6742087489683494</v>
+        <v>0.6383004966201841</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>6331</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5216100908922278</v>
+        <v>0.3492704826038159</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6771254001662064</v>
+        <v>0.6018047103239311</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>6331</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5006562910181885</v>
+        <v>0.4122362869198312</v>
       </c>
       <c r="H7" t="n">
-        <v>0.666242435752084</v>
+        <v>0.626246448123324</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>6331</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5070741369552915</v>
+        <v>0.3767741935483871</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6695700908423695</v>
+        <v>0.6111359865435635</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>6331</v>
       </c>
       <c r="G9" t="n">
-        <v>0.530230853792598</v>
+        <v>0.4096178617432374</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6817511644443937</v>
+        <v>0.6258502514514501</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>12662</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5265276253201611</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6798053500187053</v>
+        <v>0.6286097918992938</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>12662</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5398420674802584</v>
+        <v>0.4310235219326128</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6871497456927693</v>
+        <v>0.6350349261923597</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>12662</v>
       </c>
       <c r="G12" t="n">
-        <v>0.532938564026647</v>
+        <v>0.4016554127641037</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6830683788021145</v>
+        <v>0.6229679838477069</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>12662</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5371813031161473</v>
+        <v>0.457131079967024</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6859057535404535</v>
+        <v>0.6462731782263891</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>12662</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5319913731128684</v>
+        <v>0.4185947781787306</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6828964608315461</v>
+        <v>0.6294255883621244</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>9495</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5262390670553936</v>
+        <v>0.3590087073007368</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6796848503713941</v>
+        <v>0.6056533596826656</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>9495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5345356176735799</v>
+        <v>0.4088541666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>0.684224498596384</v>
+        <v>0.6260008367436108</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>9495</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5244206773618538</v>
+        <v>0.4116140051238258</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6788757364343299</v>
+        <v>0.6265003412657389</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>9495</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5243048988083979</v>
+        <v>0.3866493281317728</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6783994779633717</v>
+        <v>0.6160177144048411</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>9495</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5308490068553349</v>
+        <v>0.4397817876626102</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6825199976011447</v>
+        <v>0.638713570953288</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>18990</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5322817314746882</v>
+        <v>0.4055220017256255</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6828230815582279</v>
+        <v>0.6242272544243176</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>18990</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5420857596611964</v>
+        <v>0.3493180818301804</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6886458746826514</v>
+        <v>0.6003993094723374</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>18990</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5392895586652314</v>
+        <v>0.4395102718406309</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6868570139390633</v>
+        <v>0.6382207489569263</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>18990</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5314610735869179</v>
+        <v>0.419327731092437</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6827329816915928</v>
+        <v>0.6293245080204588</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>18990</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5258149779735682</v>
+        <v>0.3956419568468275</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6797260735591876</v>
+        <v>0.6192874257140164</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
